--- a/non_explainable_medium_disc/val/disc_free_labels.xlsx
+++ b/non_explainable_medium_disc/val/disc_free_labels.xlsx
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1780,7 +1780,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1796,7 +1796,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1932,7 +1932,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1940,7 +1940,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2268,7 +2268,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2348,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2444,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -2452,7 +2452,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2620,7 +2620,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3212,7 +3212,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -3308,7 +3308,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -3340,7 +3340,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -3404,7 +3404,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -3700,7 +3700,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -3708,7 +3708,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -3748,7 +3748,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -4116,7 +4116,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
